--- a/biology/Botanique/Austrobaileya_scandens/Austrobaileya_scandens.xlsx
+++ b/biology/Botanique/Austrobaileya_scandens/Austrobaileya_scandens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrobaileya scandens est une espèce de plantes angiospermes archaïques. C'est l'unique espèce actuellement reconnue du genre Austrobaileya, seul genre de la famille des Austrobaileyaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille, Austrobaileyaceae, vient du genre Austrobaileya, lui-même donné en 1933 par Cyril White en hommage à une lignée de botanistes australiens, membres de sa famille : John Bailey (1800-1867), son arrière grand-père, Frederick Manson Bailey (1827-1915), son  grand-père et John Frederick Bailey (1866-1938) son oncle[1]. Par ailleurs, le genre Baileya avait déjà été attribué depuis 1848 à une plante de la famille des Astéracées en référence au botaniste américain Jacob Whitman Bailey (en).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille, Austrobaileyaceae, vient du genre Austrobaileya, lui-même donné en 1933 par Cyril White en hommage à une lignée de botanistes australiens, membres de sa famille : John Bailey (1800-1867), son arrière grand-père, Frederick Manson Bailey (1827-1915), son  grand-père et John Frederick Bailey (1866-1938) son oncle. Par ailleurs, le genre Baileya avait déjà été attribué depuis 1848 à une plante de la famille des Astéracées en référence au botaniste américain Jacob Whitman Bailey (en).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des lianes à feuilles persistantes endémiques de la forêt humide du Queensland en Australie.
 </t>
@@ -573,7 +589,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette espèce, ce genre et cette famille parmi les familles d'angiospermes primitives de divergence ancienne.
 </t>
@@ -604,7 +622,9 @@
           <t>Synonyme à Austrobaileya scandens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Austrobaileya maculata C.T.White</t>
         </is>
